--- a/Disease.xlsx
+++ b/Disease.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$40</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="315">
   <si>
     <t>Path</t>
   </si>
@@ -158,8 +158,8 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus='entered-in-error' or category.select($this='problem-list-item').empty()}</t>
+    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -183,7 +183,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -215,6 +215,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Condition.implicitRules</t>
   </si>
   <si>
@@ -337,6 +341,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>codedOnset</t>
   </si>
   <si>
@@ -354,8 +362,14 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>tumorStage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ga4gh.org/fhir/phenopackets/StructureDefinition/disease-tumor-stage}
+</t>
+  </si>
+  <si>
+    <t>Tumor staging describes the extent of growth of cancer, including the tumor and, if applicable, affected lymph nodes and distant metastases.</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -431,7 +445,7 @@
     <t>The clinical status of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
   </si>
   <si>
     <t>con-3
@@ -470,7 +484,7 @@
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
   </si>
   <si>
     <t>con-3
@@ -802,18 +816,14 @@
     <t>Clinical stage or grade of a condition. May include formal severity assessments.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}</t>
+    <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
   </si>
   <si>
     <t>Condition.stage.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -925,8 +935,8 @@
     <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-con-2:evidence SHALL have code or details {code.exists() or detail.exists()}</t>
+    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1150,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1169,7 +1179,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.0859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1653,7 +1663,7 @@
         <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>42</v>
@@ -1676,7 +1686,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1699,16 +1709,16 @@
         <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1758,7 +1768,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -1770,7 +1780,7 @@
         <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>42</v>
@@ -1793,7 +1803,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1816,16 +1826,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1851,13 +1861,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -1875,7 +1885,7 @@
         <v>42</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
@@ -1887,7 +1897,7 @@
         <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>42</v>
@@ -1910,11 +1920,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1933,16 +1943,16 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1992,7 +2002,7 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
@@ -2004,7 +2014,7 @@
         <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>42</v>
@@ -2016,7 +2026,7 @@
         <v>42</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>42</v>
@@ -2027,11 +2037,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2050,16 +2060,16 @@
         <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2109,7 +2119,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2133,7 +2143,7 @@
         <v>42</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>42</v>
@@ -2144,7 +2154,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2167,13 +2177,13 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2212,17 +2222,17 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2234,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>42</v>
@@ -2257,10 +2267,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
@@ -2282,13 +2292,13 @@
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2339,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2348,10 +2358,10 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>42</v>
@@ -2372,45 +2382,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="C11" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2458,7 +2466,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2467,10 +2475,10 @@
         <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>42</v>
@@ -2482,7 +2490,7 @@
         <v>42</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>42</v>
@@ -2493,11 +2501,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2510,25 +2518,25 @@
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2577,7 +2585,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2589,10 +2597,10 @@
         <v>42</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>42</v>
@@ -2601,10 +2609,10 @@
         <v>42</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>42</v>
@@ -2612,7 +2620,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2623,30 +2631,32 @@
         <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2670,13 +2680,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2694,34 +2704,34 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>42</v>
@@ -2729,7 +2739,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2752,16 +2762,16 @@
         <v>54</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2787,13 +2797,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2811,7 +2821,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -2820,33 +2830,33 @@
         <v>53</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2857,28 +2867,28 @@
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2904,66 +2914,66 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AN15" t="s" s="2">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2974,7 +2984,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -2986,16 +2996,16 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3021,70 +3031,70 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3094,27 +3104,27 @@
         <v>53</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3138,13 +3148,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3162,7 +3172,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3174,44 +3184,44 @@
         <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
@@ -3220,18 +3230,18 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3255,80 +3265,80 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
@@ -3337,18 +3347,18 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3372,13 +3382,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3396,56 +3406,56 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3454,18 +3464,18 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3513,10 +3523,10 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>53</v>
@@ -3525,30 +3535,30 @@
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3562,7 +3572,7 @@
         <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3571,16 +3581,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3630,7 +3640,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3642,30 +3652,30 @@
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3679,25 +3689,25 @@
         <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3747,7 +3757,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3756,25 +3766,25 @@
         <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
@@ -3782,7 +3792,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3802,18 +3812,20 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3862,7 +3874,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -3871,10 +3883,10 @@
         <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>42</v>
@@ -3883,13 +3895,13 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>42</v>
@@ -3897,7 +3909,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3920,13 +3932,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3977,7 +3989,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -3989,7 +4001,7 @@
         <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>42</v>
@@ -3998,13 +4010,13 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>42</v>
@@ -4012,7 +4024,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4035,13 +4047,13 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4092,7 +4104,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4104,7 +4116,7 @@
         <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>42</v>
@@ -4113,13 +4125,13 @@
         <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>42</v>
@@ -4127,7 +4139,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4138,7 +4150,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4147,16 +4159,16 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4207,19 +4219,19 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
@@ -4228,13 +4240,13 @@
         <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>42</v>
@@ -4242,7 +4254,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4253,7 +4265,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4265,13 +4277,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4322,19 +4334,19 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>42</v>
@@ -4346,7 +4358,7 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>42</v>
@@ -4357,18 +4369,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4380,17 +4392,15 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4439,13 +4449,13 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4463,7 +4473,7 @@
         <v>42</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>42</v>
@@ -4474,11 +4484,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4491,26 +4501,24 @@
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4570,7 +4578,7 @@
         <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>42</v>
@@ -4582,7 +4590,7 @@
         <v>42</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>42</v>
@@ -4593,39 +4601,43 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4649,13 +4661,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4673,31 +4685,31 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>42</v>
@@ -4708,7 +4720,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4719,7 +4731,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4731,13 +4743,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4764,13 +4776,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4788,31 +4800,31 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>42</v>
@@ -4823,7 +4835,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4834,7 +4846,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4846,13 +4858,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4879,13 +4891,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4903,19 +4915,19 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -4927,7 +4939,7 @@
         <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>42</v>
@@ -4938,7 +4950,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4949,7 +4961,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4961,17 +4973,15 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4996,13 +5006,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -5020,19 +5030,19 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
@@ -5044,7 +5054,7 @@
         <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>42</v>
@@ -5055,7 +5065,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5066,7 +5076,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5078,15 +5088,17 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5135,19 +5147,19 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5159,7 +5171,7 @@
         <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>42</v>
@@ -5170,18 +5182,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5193,17 +5205,15 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5252,13 +5262,13 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
@@ -5276,7 +5286,7 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>42</v>
@@ -5287,11 +5297,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5304,26 +5314,24 @@
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5371,7 +5379,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5383,7 +5391,7 @@
         <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -5395,7 +5403,7 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>42</v>
@@ -5406,11 +5414,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5423,22 +5431,26 @@
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5462,13 +5474,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5486,7 +5498,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5495,25 +5507,25 @@
         <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5521,7 +5533,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5544,13 +5556,13 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5577,13 +5589,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5601,7 +5613,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5610,25 +5622,25 @@
         <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
@@ -5636,7 +5648,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5656,16 +5668,16 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5716,7 +5728,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5725,32 +5737,147 @@
         <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="K40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO39" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO39">
+  <autoFilter ref="A1:AO40">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5760,7 +5887,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
